--- a/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{621D636A-F9DF-41C7-893B-EF55BB212253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45249E-F8CE-4055-858A-BB9C6242CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Stanleys Abenteuer Präsentation</t>
   </si>
@@ -72,18 +72,6 @@
     <t>Gameplay Trailer, Itch.io Seite &amp; Abschlusspräsentation</t>
   </si>
   <si>
-    <t>Übergangsanimationen</t>
-  </si>
-  <si>
-    <t>Loch für Level Start und Ende</t>
-  </si>
-  <si>
-    <t>Gameplay Trailer &amp; Itch.io Seite</t>
-  </si>
-  <si>
-    <t>Schneiden in DaVinci oder ähnlichem</t>
-  </si>
-  <si>
     <t>Youtube</t>
   </si>
   <si>
@@ -96,18 +84,12 @@
     <t>Dokumente</t>
   </si>
   <si>
-    <t>Digitale Präsentation</t>
-  </si>
-  <si>
     <t>Fehlerbeseitigung</t>
   </si>
   <si>
     <t>Gesamtprojekt</t>
   </si>
   <si>
-    <t>Itch.io Seite &amp; Digitale Präsentation</t>
-  </si>
-  <si>
     <t>Powerpoint Präsentation</t>
   </si>
   <si>
@@ -115,6 +97,63 @@
   </si>
   <si>
     <t>Team 1</t>
+  </si>
+  <si>
+    <t>Animationen</t>
+  </si>
+  <si>
+    <t>Wurm kriecht von Loch zu Loch</t>
+  </si>
+  <si>
+    <t>Gameplay Trailer, Gesamtspiel, Itch.io Seite &amp; Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Umblättern der Seite</t>
+  </si>
+  <si>
+    <t>Bearbeitet</t>
+  </si>
+  <si>
+    <t>Stanley sieht Sterne</t>
+  </si>
+  <si>
+    <t>Schlösser zum freischalten</t>
+  </si>
+  <si>
+    <t>Sprechblasen</t>
+  </si>
+  <si>
+    <t>Lefti</t>
+  </si>
+  <si>
+    <t>Lefti &amp; Tony</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Niran</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Für Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Gesamtspiel, Itch.io Seite &amp; Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Trailer zusammenschneiden</t>
+  </si>
+  <si>
+    <t>Zustand</t>
+  </si>
+  <si>
+    <t>Fertig</t>
   </si>
 </sst>
 </file>
@@ -162,15 +201,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -352,11 +397,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,59 +510,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,34 +877,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="100.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -745,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,28 +924,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45679</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -785,94 +964,188 @@
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10" t="s">
+      <c r="D18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B11:D11"/>
+  <mergeCells count="6">
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="F15:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45249E-F8CE-4055-858A-BB9C6242CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D34FE-066C-4527-AF44-36408A511CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Stanleys Abenteuer Präsentation</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Fertig</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Wartet</t>
   </si>
 </sst>
 </file>
@@ -537,6 +543,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,12 +594,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -581,21 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +886,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,14 +905,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -945,13 +951,13 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -975,96 +981,102 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
@@ -1075,14 +1087,14 @@
         <v>35</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1095,14 +1107,14 @@
         <v>36</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
@@ -1113,14 +1125,14 @@
         <v>37</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>22</v>

--- a/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
+++ b/Assets/Documents/Stanleys Abenteuer Aufgaben 20.01.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\HangedLarryStan\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D34FE-066C-4527-AF44-36408A511CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E01F0-2AF7-45C4-8F86-664B1C0C087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Stanleys Abenteuer Präsentation</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Wartet</t>
+  </si>
+  <si>
+    <t>Schlösser überarbeiten</t>
+  </si>
+  <si>
+    <t>Bilder</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -492,11 +498,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>32</v>
@@ -1022,142 +1044,159 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>43</v>
+      <c r="C16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>42</v>
+      <c r="E17" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="21" t="s">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="9" t="s">
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="13" t="s">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
+  <mergeCells count="7">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
